--- a/biology/Botanique/Charles_Isidore_Douin/Charles_Isidore_Douin.xlsx
+++ b/biology/Botanique/Charles_Isidore_Douin/Charles_Isidore_Douin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Narcisse Isidore Douin est un botaniste français, né le 28 février 1858 à Bouville (Eure-et-Loir) et mort le 7 juin 1944 à Chartres, à son domicile, rue de Varize.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Jean Pierre Isidore Douin, charretier, et de Victoire Séraphine Dupré[1], sur les conseils de son instituteur, il entre à l'école normale et en ressort diplômé en 1877. Il devient répétiteur au collège de Dreux, puis au collège de Chartres, tout en préparant son baccalauréat ès-sciences, puis une licence en sciences naturelles. Il est ensuite nommé professeur au collège de Chartres[2] (qui sera appelé lycée Marceau) de 1889 à 1920 et se consacre à l’étude des mousses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jean Pierre Isidore Douin, charretier, et de Victoire Séraphine Dupré, sur les conseils de son instituteur, il entre à l'école normale et en ressort diplômé en 1877. Il devient répétiteur au collège de Dreux, puis au collège de Chartres, tout en préparant son baccalauréat ès-sciences, puis une licence en sciences naturelles. Il est ensuite nommé professeur au collège de Chartres (qui sera appelé lycée Marceau) de 1889 à 1920 et se consacre à l’étude des mousses.
 Il mène des études sur les hépatiques, et particulièrement sur celles de la famille des Céphaloziellacées, famille qu'il a nommée.
-Le bryologiste Fernand Camus, dans son rapport sur l'attribution du Prix de Coincy[3], précise la méthode de travail de Ch. I. Douin :
+Le bryologiste Fernand Camus, dans son rapport sur l'attribution du Prix de Coincy, précise la méthode de travail de Ch. I. Douin :
 « Ces petites plantes, très négligées des hépaticologues en raison des difficultés de leur étude, et même de leur recherche, M. Douin les a étudiées sur place dans la région qu'il habite, le Perche, laquelle est riche en Hépatiques, et dans diverses parties de la France, Auvergne, Pyrénées, Savoie, etc., prélevant partout des échantillons qu'il ne se contentait pas d'examiner en chambre et de placer en herbier, mais les soumettant au contrôle de la culture et ce non seulement dans des milieux artificiels, mais dans la nature même, les plaçant dans des conditions variées, obtenant ainsi de nombreuses variations lui permettant de se rendre compte des raisons et aussi de la valeur de ces variations, dont la plupart sont réalisées dans l'état naturel de ces plantes, et qui ont souvent trompé les botanistes. Ces matériaux ont été complétés par les envois de nombreux correspondants, par l'examen des échantillons des herbiers publics et particuliers, par des communications des botanistes étrangers. Élargissant le cercle primitif de ses études, M. Douin a étendu son travail aux espèces de Cephaloziella du monde entier. En même temps qu'il étudiait ces Hépatiques aux points de vue systématique et biologique, M. Douin les étudiait également au point de vue anatomique, trop souvent négligé des systématiciens. Cette étude lui a révélé des faits absolument nouveaux, qui lui ont fourni une base solide pour les coupes génériques et spécifiques qu'il a faites dans le groupe. Les résultats de ces longues et patientes recherches ont dépassé toutes les prévisions.
 En 1882, R. Spruce, un des grands noms de l'hépaticologie, publiant une Monographie du genre Cephalozia, créait dans ce genre le sous-genre Cephaloziella et lui assignait pour le monde entier, treize espèces. Ce sous-genre, dont les limites étaient assez peu nettes et basées sur des caractères peu constants et de valeur discutable, est devenu, grâce aux travaux de M. Douin, une famille nouvelle d'Hépatiques, aux limites aujourd'hui parfaitement précises, basée sur des caractères à la fois morphologiques et anatomiques d'une indiscutable valeur et acceptée par des hépaticologues de renom. »
 Il était membre de la Société botanique de France.
@@ -552,7 +566,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ouvrage :
 Nouvelle flore des mousses et des hépatiques pour la détermination facile des espèces, Paris, Paul Dupont, 1892 ; 	nouvelle édition revue et corrigée, Paris, Paul Dupont, 1896 ; réimpression, Paris, Belin, 1986.
@@ -576,7 +592,7 @@
 Les variations du gamètophyte chez les Céphaloziellacées, dans la Revue Générale de Botanique, t.28, 1916, p. 257-288
 Le Reboulia Raddi, avec Robert Douin, dans la Revue Générale de Botanique, t.30, 1918, p. 129-145
 Deux hépatiques peu connues, avec Louis Charles Trabut, dans la Revue Générale de Botanique, t.31, 1919, p. 321-328
-La Famille des Céphaloziellacées, dans le Bulletin de la Société Botanique de France, 1920, mémoire 29, 90 p. [1]
+La Famille des Céphaloziellacées, dans le Bulletin de la Société Botanique de France, 1920, mémoire 29, 90 p. 
 Remarques critiques sur quelques Céphaloziellacées, dans le Bulletin de la Société Botanique de France, t.74, 1927, p. 712-725
 Remarques critiques sur quelques Céphaloziellacées (suite), dans le Bulletin de la Société Botanique de France, t.77, 1930, p. 196-201</t>
         </is>
@@ -606,7 +622,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il reçut le Prix Jean Thore décerné par l'Institut de France en 1915, et le Prix de Coincy en 1920, par la Société Botanique de France[Note 1].
 Depuis 1983, une rue de Chartres porte son nom.</t>
